--- a/script/Pr_temp_spreadsheets/05_00_ARC05_9_1.xlsx
+++ b/script/Pr_temp_spreadsheets/05_00_ARC05_9_1.xlsx
@@ -1046,7 +1046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59983eba-8c71-4f28-b063-37b22b786eda}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ea484cc2-464b-4f0d-8abf-817c016c5c0f}">
   <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1944,7 +1944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a6b82937-d19e-4ae8-b8e7-376997cde1b5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98668093-7046-461d-8988-bfd5af984003}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
